--- a/程序员客栈项目/因卓科技教育平台/原型设计/最终确认文档归档/6.3程序员客栈项目开发报价单（因卓科技1.0-整包）.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/原型设计/最终确认文档归档/6.3程序员客栈项目开发报价单（因卓科技1.0-整包）.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14184"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14184" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能点" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="278">
   <si>
     <t>程序员客栈——项目报价清单</t>
   </si>
@@ -1058,7 +1058,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1184,6 +1184,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2446,8 +2452,8 @@
   </sheetPr>
   <dimension ref="A1:P172"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView showGridLines="0" topLeftCell="F112" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -2462,7 +2468,8 @@
     <col min="8" max="8" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="19" customWidth="1"/>
-    <col min="11" max="14" width="11.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.109375" style="19" customWidth="1"/>
     <col min="16" max="16" width="12.44140625" style="17" customWidth="1"/>
     <col min="17" max="259" width="16.33203125" style="15" customWidth="1"/>
@@ -2470,46 +2477,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="54"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" spans="1:16" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2562,10 +2569,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -2576,7 +2583,7 @@
       <c r="F4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="64" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="27"/>
@@ -2602,9 +2609,9 @@
       <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -2614,7 +2621,7 @@
       <c r="F5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="27"/>
       <c r="I5" s="28">
         <v>0.25</v>
@@ -2638,10 +2645,10 @@
       <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="48" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="50" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="25" t="s">
@@ -2650,7 +2657,7 @@
       <c r="F6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="27"/>
       <c r="I6" s="28">
         <v>0</v>
@@ -2674,17 +2681,17 @@
       <c r="P6" s="29"/>
     </row>
     <row r="7" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="63"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="27"/>
       <c r="I7" s="28">
         <v>0</v>
@@ -2708,17 +2715,17 @@
       <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="63"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="27"/>
       <c r="I8" s="28">
         <v>0</v>
@@ -2742,8 +2749,8 @@
       <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="25" t="s">
         <v>40</v>
       </c>
@@ -2752,7 +2759,7 @@
       <c r="F9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="63"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="27"/>
       <c r="I9" s="28">
         <v>0.125</v>
@@ -2776,8 +2783,8 @@
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="33" t="s">
         <v>42</v>
       </c>
@@ -2786,7 +2793,7 @@
       <c r="F10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="63"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27">
         <v>0.25</v>
@@ -2810,8 +2817,8 @@
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="48" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -2846,8 +2853,8 @@
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="25" t="s">
         <v>47</v>
       </c>
@@ -2880,8 +2887,8 @@
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="47" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -2918,8 +2925,8 @@
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="20" t="s">
         <v>53</v>
       </c>
@@ -2954,9 +2961,9 @@
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -2965,10 +2972,10 @@
       <c r="E15" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="47" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="27"/>
@@ -2994,17 +3001,17 @@
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="27"/>
       <c r="I16" s="28">
         <v>0.25</v>
@@ -3028,17 +3035,17 @@
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="27"/>
       <c r="I17" s="28">
         <v>0.25</v>
@@ -3062,15 +3069,15 @@
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="27"/>
       <c r="I18" s="28">
         <v>0.25</v>
@@ -3094,9 +3101,9 @@
       <c r="P18" s="29"/>
     </row>
     <row r="19" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="26" t="s">
         <v>64</v>
       </c>
@@ -3128,8 +3135,8 @@
       <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="47" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -3166,8 +3173,8 @@
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="20" t="s">
         <v>70</v>
       </c>
@@ -3202,8 +3209,8 @@
       <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="20" t="s">
         <v>73</v>
       </c>
@@ -3236,8 +3243,8 @@
       <c r="P22" s="29"/>
     </row>
     <row r="23" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="20" t="s">
         <v>74</v>
       </c>
@@ -3270,8 +3277,8 @@
       <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="20" t="s">
         <v>76</v>
       </c>
@@ -3302,8 +3309,8 @@
       <c r="P24" s="29"/>
     </row>
     <row r="25" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="20" t="s">
         <v>77</v>
       </c>
@@ -3336,8 +3343,8 @@
       <c r="P25" s="29"/>
     </row>
     <row r="26" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="47" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="20" t="s">
@@ -3372,8 +3379,8 @@
       <c r="P26" s="29"/>
     </row>
     <row r="27" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="20" t="s">
         <v>82</v>
       </c>
@@ -3406,8 +3413,8 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="20" t="s">
         <v>83</v>
       </c>
@@ -3440,8 +3447,8 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="20" t="s">
         <v>84</v>
       </c>
@@ -3472,8 +3479,8 @@
       <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="20" t="s">
         <v>85</v>
       </c>
@@ -3506,8 +3513,8 @@
       <c r="P30" s="29"/>
     </row>
     <row r="31" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="20" t="s">
         <v>87</v>
       </c>
@@ -3540,8 +3547,8 @@
       <c r="P31" s="29"/>
     </row>
     <row r="32" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="20" t="s">
         <v>89</v>
       </c>
@@ -3574,8 +3581,8 @@
       <c r="P32" s="29"/>
     </row>
     <row r="33" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="20" t="s">
         <v>91</v>
       </c>
@@ -3608,12 +3615,12 @@
       <c r="P33" s="29"/>
     </row>
     <row r="34" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="47" t="s">
         <v>94</v>
       </c>
       <c r="E34" s="20" t="s">
@@ -3622,7 +3629,7 @@
       <c r="F34" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="47" t="s">
         <v>97</v>
       </c>
       <c r="H34" s="27"/>
@@ -3648,17 +3655,17 @@
       <c r="P34" s="29"/>
     </row>
     <row r="35" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="20" t="s">
         <v>98</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="45"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="27"/>
       <c r="I35" s="28">
         <v>0.25</v>
@@ -3682,8 +3689,8 @@
       <c r="P35" s="29"/>
     </row>
     <row r="36" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="47" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="20" t="s">
@@ -3718,8 +3725,8 @@
       <c r="P36" s="29"/>
     </row>
     <row r="37" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="20" t="s">
         <v>103</v>
       </c>
@@ -3752,12 +3759,12 @@
       <c r="P37" s="29"/>
     </row>
     <row r="38" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="47" t="s">
         <v>106</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -3790,10 +3797,10 @@
       <c r="P38" s="29"/>
     </row>
     <row r="39" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="20" t="s">
         <v>109</v>
       </c>
@@ -3824,9 +3831,9 @@
       <c r="P39" s="29"/>
     </row>
     <row r="40" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="20" t="s">
         <v>111</v>
       </c>
@@ -3858,9 +3865,9 @@
       <c r="P40" s="29"/>
     </row>
     <row r="41" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="20" t="s">
         <v>113</v>
       </c>
@@ -3890,9 +3897,9 @@
       <c r="P41" s="29"/>
     </row>
     <row r="42" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47" t="s">
         <v>116</v>
       </c>
       <c r="D42" s="20" t="s">
@@ -3926,9 +3933,9 @@
       <c r="P42" s="29"/>
     </row>
     <row r="43" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="20" t="s">
         <v>114</v>
       </c>
@@ -3960,10 +3967,10 @@
       <c r="P43" s="29"/>
     </row>
     <row r="44" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47" t="s">
         <v>120</v>
       </c>
       <c r="E44" s="20" t="s">
@@ -3994,10 +4001,10 @@
       <c r="P44" s="29"/>
     </row>
     <row r="45" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="20" t="s">
         <v>122</v>
       </c>
@@ -4026,9 +4033,9 @@
       <c r="P45" s="29"/>
     </row>
     <row r="46" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="20" t="s">
         <v>123</v>
       </c>
@@ -4058,10 +4065,10 @@
       <c r="P46" s="29"/>
     </row>
     <row r="47" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47" t="s">
         <v>124</v>
       </c>
       <c r="E47" s="20" t="s">
@@ -4070,19 +4077,19 @@
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="27"/>
-      <c r="I47" s="42">
+      <c r="I47" s="44">
         <v>0.5</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J47" s="44">
         <v>0.5</v>
       </c>
-      <c r="K47" s="42">
+      <c r="K47" s="44">
         <v>1</v>
       </c>
-      <c r="L47" s="42">
+      <c r="L47" s="44">
         <v>1</v>
       </c>
-      <c r="M47" s="42">
+      <c r="M47" s="44">
         <v>1</v>
       </c>
       <c r="N47" s="28">
@@ -4092,10 +4099,10 @@
       <c r="P47" s="29"/>
     </row>
     <row r="48" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="20" t="s">
         <v>126</v>
       </c>
@@ -4104,11 +4111,11 @@
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="27"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
       <c r="N48" s="28">
         <v>0.25</v>
       </c>
@@ -4116,10 +4123,10 @@
       <c r="P48" s="29"/>
     </row>
     <row r="49" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="20" t="s">
         <v>128</v>
       </c>
@@ -4128,11 +4135,11 @@
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="27"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
       <c r="N49" s="28">
         <v>0.5</v>
       </c>
@@ -4140,10 +4147,10 @@
       <c r="P49" s="29"/>
     </row>
     <row r="50" spans="1:16" s="30" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="20" t="s">
         <v>130</v>
       </c>
@@ -4154,11 +4161,11 @@
         <v>132</v>
       </c>
       <c r="H50" s="27"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
       <c r="N50" s="28">
         <v>0.25</v>
       </c>
@@ -4166,9 +4173,9 @@
       <c r="P50" s="29"/>
     </row>
     <row r="51" spans="1:16" s="30" customFormat="1" ht="156.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47" t="s">
         <v>133</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -4204,9 +4211,9 @@
       <c r="P51" s="29"/>
     </row>
     <row r="52" spans="1:16" s="30" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="20" t="s">
         <v>130</v>
       </c>
@@ -4240,8 +4247,8 @@
       <c r="P52" s="29"/>
     </row>
     <row r="53" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="20" t="s">
         <v>137</v>
       </c>
@@ -4274,9 +4281,9 @@
       <c r="P53" s="29"/>
     </row>
     <row r="54" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47" t="s">
         <v>139</v>
       </c>
       <c r="D54" s="20" t="s">
@@ -4310,9 +4317,9 @@
       <c r="P54" s="29"/>
     </row>
     <row r="55" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="20" t="s">
         <v>141</v>
       </c>
@@ -4344,10 +4351,10 @@
       <c r="P55" s="29"/>
     </row>
     <row r="56" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45" t="s">
+      <c r="A56" s="51"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47" t="s">
         <v>124</v>
       </c>
       <c r="E56" s="20" t="s">
@@ -4378,10 +4385,10 @@
       <c r="P56" s="29"/>
     </row>
     <row r="57" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="20" t="s">
         <v>126</v>
       </c>
@@ -4412,10 +4419,10 @@
       <c r="P57" s="29"/>
     </row>
     <row r="58" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="20" t="s">
         <v>128</v>
       </c>
@@ -4446,10 +4453,10 @@
       <c r="P58" s="29"/>
     </row>
     <row r="59" spans="1:16" s="30" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="20" t="s">
         <v>130</v>
       </c>
@@ -4482,9 +4489,9 @@
       <c r="P59" s="29"/>
     </row>
     <row r="60" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="20" t="s">
         <v>143</v>
       </c>
@@ -4516,8 +4523,8 @@
       <c r="P60" s="29"/>
     </row>
     <row r="61" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="45"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="20" t="s">
         <v>145</v>
       </c>
@@ -4550,7 +4557,7 @@
       <c r="P61" s="29"/>
     </row>
     <row r="62" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20" t="s">
         <v>147</v>
@@ -4584,11 +4591,11 @@
       <c r="P62" s="29"/>
     </row>
     <row r="63" spans="1:16" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="45" t="s">
+      <c r="A63" s="51"/>
+      <c r="B63" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="47" t="s">
         <v>150</v>
       </c>
       <c r="D63" s="20" t="s">
@@ -4598,31 +4605,31 @@
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="H63" s="27"/>
-      <c r="I63" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="J63" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="K63" s="42">
+      <c r="I63" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="J63" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="K63" s="44">
         <v>0.625</v>
       </c>
-      <c r="L63" s="42">
+      <c r="L63" s="44">
         <v>0.625</v>
       </c>
-      <c r="M63" s="42">
+      <c r="M63" s="44">
         <v>0.625</v>
       </c>
-      <c r="N63" s="42">
+      <c r="N63" s="44">
         <v>0.75</v>
       </c>
       <c r="O63" s="27"/>
       <c r="P63" s="29"/>
     </row>
     <row r="64" spans="1:16" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="20" t="s">
         <v>152</v>
       </c>
@@ -4630,19 +4637,19 @@
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="27"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
       <c r="O64" s="27"/>
       <c r="P64" s="29"/>
     </row>
     <row r="65" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="20" t="s">
         <v>153</v>
       </c>
@@ -4650,19 +4657,19 @@
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
       <c r="H65" s="27"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
       <c r="O65" s="27"/>
       <c r="P65" s="29"/>
     </row>
     <row r="66" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="20" t="s">
         <v>115</v>
       </c>
@@ -4674,17 +4681,17 @@
         <v>155</v>
       </c>
       <c r="H66" s="27"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
       <c r="O66" s="27"/>
       <c r="P66" s="29"/>
     </row>
     <row r="67" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="20" t="s">
         <v>156</v>
       </c>
@@ -4720,8 +4727,8 @@
       <c r="P67" s="29"/>
     </row>
     <row r="68" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="45" t="s">
+      <c r="A68" s="51"/>
+      <c r="B68" s="47" t="s">
         <v>159</v>
       </c>
       <c r="C68" s="20" t="s">
@@ -4756,8 +4763,8 @@
       <c r="P68" s="38"/>
     </row>
     <row r="69" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="45"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="20" t="s">
         <v>162</v>
       </c>
@@ -4790,8 +4797,8 @@
       <c r="P69" s="38"/>
     </row>
     <row r="70" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="45"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="20" t="s">
         <v>164</v>
       </c>
@@ -4824,8 +4831,8 @@
       <c r="P70" s="38"/>
     </row>
     <row r="71" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="45"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="20" t="s">
         <v>165</v>
       </c>
@@ -4858,8 +4865,8 @@
       <c r="P71" s="38"/>
     </row>
     <row r="72" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="45"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="20" t="s">
         <v>167</v>
       </c>
@@ -4890,8 +4897,8 @@
       <c r="P72" s="38"/>
     </row>
     <row r="73" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="45"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="20" t="s">
         <v>168</v>
       </c>
@@ -4924,7 +4931,7 @@
       <c r="P73" s="38"/>
     </row>
     <row r="74" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="26" t="s">
         <v>170</v>
       </c>
@@ -4960,11 +4967,11 @@
       <c r="P74" s="38"/>
     </row>
     <row r="75" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="44" t="s">
+      <c r="A75" s="51"/>
+      <c r="B75" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="46" t="s">
         <v>174</v>
       </c>
       <c r="D75" s="26"/>
@@ -4996,9 +5003,9 @@
       <c r="P75" s="38"/>
     </row>
     <row r="76" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26" t="s">
@@ -5028,9 +5035,9 @@
       <c r="P76" s="38"/>
     </row>
     <row r="77" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44" t="s">
+      <c r="A77" s="51"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46" t="s">
         <v>177</v>
       </c>
       <c r="D77" s="26"/>
@@ -5062,9 +5069,9 @@
       <c r="P77" s="38"/>
     </row>
     <row r="78" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
       <c r="F78" s="26" t="s">
@@ -5094,10 +5101,10 @@
       <c r="P78" s="38"/>
     </row>
     <row r="79" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
+      <c r="A79" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="46" t="s">
         <v>30</v>
       </c>
       <c r="C79" s="25" t="s">
@@ -5110,7 +5117,7 @@
       <c r="F79" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G79" s="42" t="s">
+      <c r="G79" s="44" t="s">
         <v>181</v>
       </c>
       <c r="H79" s="36"/>
@@ -5132,8 +5139,8 @@
       <c r="P79" s="38"/>
     </row>
     <row r="80" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="44"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="25" t="s">
         <v>40</v>
       </c>
@@ -5142,7 +5149,7 @@
       <c r="F80" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="42"/>
+      <c r="G80" s="44"/>
       <c r="H80" s="36"/>
       <c r="I80" s="28">
         <v>0</v>
@@ -5162,8 +5169,8 @@
       <c r="P80" s="38"/>
     </row>
     <row r="81" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="44"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="25" t="s">
         <v>27</v>
       </c>
@@ -5192,8 +5199,8 @@
       <c r="P81" s="38"/>
     </row>
     <row r="82" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="44"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="46"/>
       <c r="C82" s="25" t="s">
         <v>33</v>
       </c>
@@ -5222,8 +5229,8 @@
       <c r="P82" s="38"/>
     </row>
     <row r="83" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="46"/>
       <c r="C83" s="25" t="s">
         <v>42</v>
       </c>
@@ -5252,8 +5259,8 @@
       <c r="P83" s="38"/>
     </row>
     <row r="84" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="48" t="s">
+      <c r="A84" s="51"/>
+      <c r="B84" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C84" s="25" t="s">
@@ -5284,8 +5291,8 @@
       <c r="P84" s="38"/>
     </row>
     <row r="85" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="44"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="25" t="s">
         <v>47</v>
       </c>
@@ -5314,8 +5321,8 @@
       <c r="P85" s="38"/>
     </row>
     <row r="86" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="45" t="s">
+      <c r="A86" s="51"/>
+      <c r="B86" s="47" t="s">
         <v>185</v>
       </c>
       <c r="C86" s="20" t="s">
@@ -5348,9 +5355,9 @@
       <c r="P86" s="38"/>
     </row>
     <row r="87" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45" t="s">
+      <c r="A87" s="51"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47" t="s">
         <v>56</v>
       </c>
       <c r="D87" s="20" t="s">
@@ -5359,10 +5366,10 @@
       <c r="E87" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="45" t="s">
+      <c r="F87" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G87" s="45" t="s">
+      <c r="G87" s="47" t="s">
         <v>186</v>
       </c>
       <c r="H87" s="36"/>
@@ -5384,17 +5391,17 @@
       <c r="P87" s="38"/>
     </row>
     <row r="88" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
       <c r="H88" s="36"/>
       <c r="I88" s="28">
         <v>0</v>
@@ -5414,17 +5421,17 @@
       <c r="P88" s="38"/>
     </row>
     <row r="89" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="20" t="s">
         <v>187</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
       <c r="H89" s="36"/>
       <c r="I89" s="28">
         <v>0</v>
@@ -5444,9 +5451,9 @@
       <c r="P89" s="38"/>
     </row>
     <row r="90" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
+      <c r="A90" s="51"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="26" t="s">
         <v>64</v>
       </c>
@@ -5474,8 +5481,8 @@
       <c r="P90" s="38"/>
     </row>
     <row r="91" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="45" t="s">
+      <c r="A91" s="51"/>
+      <c r="B91" s="47" t="s">
         <v>188</v>
       </c>
       <c r="C91" s="20" t="s">
@@ -5506,9 +5513,9 @@
       <c r="P91" s="38"/>
     </row>
     <row r="92" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45" t="s">
+      <c r="A92" s="51"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47" t="s">
         <v>189</v>
       </c>
       <c r="D92" s="20"/>
@@ -5538,9 +5545,9 @@
       <c r="P92" s="38"/>
     </row>
     <row r="93" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="49"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="20"/>
       <c r="E93" s="20" t="s">
         <v>109</v>
@@ -5568,8 +5575,8 @@
       <c r="P93" s="38"/>
     </row>
     <row r="94" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A94" s="49"/>
-      <c r="B94" s="45"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="20" t="s">
         <v>192</v>
       </c>
@@ -5598,8 +5605,8 @@
       <c r="P94" s="38"/>
     </row>
     <row r="95" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="45" t="s">
+      <c r="A95" s="51"/>
+      <c r="B95" s="47" t="s">
         <v>195</v>
       </c>
       <c r="C95" s="20" t="s">
@@ -5608,7 +5615,7 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="45" t="s">
+      <c r="G95" s="47" t="s">
         <v>197</v>
       </c>
       <c r="H95" s="36"/>
@@ -5630,9 +5637,9 @@
       <c r="P95" s="38"/>
     </row>
     <row r="96" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="45" t="s">
+      <c r="A96" s="51"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47" t="s">
         <v>198</v>
       </c>
       <c r="D96" s="20" t="s">
@@ -5644,7 +5651,7 @@
       <c r="F96" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="G96" s="45"/>
+      <c r="G96" s="47"/>
       <c r="H96" s="36"/>
       <c r="I96" s="28">
         <v>0.125</v>
@@ -5664,9 +5671,9 @@
       <c r="P96" s="38"/>
     </row>
     <row r="97" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="45"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20" t="s">
         <v>109</v>
@@ -5674,7 +5681,7 @@
       <c r="F97" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="G97" s="45"/>
+      <c r="G97" s="47"/>
       <c r="H97" s="36"/>
       <c r="I97" s="28">
         <v>0.125</v>
@@ -5694,9 +5701,9 @@
       <c r="P97" s="38"/>
     </row>
     <row r="98" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="26" t="s">
         <v>200</v>
       </c>
@@ -5704,7 +5711,7 @@
       <c r="F98" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G98" s="45"/>
+      <c r="G98" s="47"/>
       <c r="H98" s="36"/>
       <c r="I98" s="28">
         <v>0.25</v>
@@ -5724,9 +5731,9 @@
       <c r="P98" s="38"/>
     </row>
     <row r="99" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="49"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="26" t="s">
         <v>202</v>
       </c>
@@ -5734,7 +5741,7 @@
       <c r="F99" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="G99" s="45"/>
+      <c r="G99" s="47"/>
       <c r="H99" s="36"/>
       <c r="I99" s="28">
         <v>0.25</v>
@@ -5754,9 +5761,9 @@
       <c r="P99" s="38"/>
     </row>
     <row r="100" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
       <c r="D100" s="26" t="s">
         <v>204</v>
       </c>
@@ -5764,7 +5771,7 @@
       <c r="F100" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="G100" s="45"/>
+      <c r="G100" s="47"/>
       <c r="H100" s="36"/>
       <c r="I100" s="28">
         <v>0.25</v>
@@ -5784,7 +5791,7 @@
       <c r="P100" s="38"/>
     </row>
     <row r="101" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="49"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="20" t="s">
         <v>206</v>
       </c>
@@ -5818,7 +5825,7 @@
       <c r="P101" s="38"/>
     </row>
     <row r="102" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A102" s="49"/>
+      <c r="A102" s="51"/>
       <c r="B102" s="20" t="s">
         <v>156</v>
       </c>
@@ -5850,8 +5857,8 @@
       <c r="P102" s="38"/>
     </row>
     <row r="103" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="49"/>
-      <c r="B103" s="44" t="s">
+      <c r="A103" s="51"/>
+      <c r="B103" s="46" t="s">
         <v>209</v>
       </c>
       <c r="C103" s="26" t="s">
@@ -5880,9 +5887,9 @@
       <c r="P103" s="38"/>
     </row>
     <row r="104" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="49"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44" t="s">
+      <c r="A104" s="51"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="46" t="s">
         <v>210</v>
       </c>
       <c r="D104" s="26"/>
@@ -5892,27 +5899,27 @@
       <c r="F104" s="26"/>
       <c r="G104" s="26"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="42">
+      <c r="I104" s="44">
         <v>0.25</v>
       </c>
       <c r="J104" s="36"/>
-      <c r="K104" s="42">
+      <c r="K104" s="44">
         <v>0.375</v>
       </c>
-      <c r="L104" s="42">
+      <c r="L104" s="44">
         <v>0.375</v>
       </c>
       <c r="M104" s="36"/>
-      <c r="N104" s="42">
+      <c r="N104" s="44">
         <v>0.375</v>
       </c>
       <c r="O104" s="37"/>
       <c r="P104" s="38"/>
     </row>
     <row r="105" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="49"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
       <c r="D105" s="26"/>
       <c r="E105" s="26" t="s">
         <v>212</v>
@@ -5920,19 +5927,19 @@
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="42"/>
+      <c r="I105" s="44"/>
       <c r="J105" s="36"/>
-      <c r="K105" s="42"/>
-      <c r="L105" s="42"/>
+      <c r="K105" s="44"/>
+      <c r="L105" s="44"/>
       <c r="M105" s="36"/>
-      <c r="N105" s="42"/>
+      <c r="N105" s="44"/>
       <c r="O105" s="37"/>
       <c r="P105" s="38"/>
     </row>
     <row r="106" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="49"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
+      <c r="A106" s="51"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
       <c r="D106" s="26"/>
       <c r="E106" s="26" t="s">
         <v>213</v>
@@ -5940,18 +5947,18 @@
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
       <c r="H106" s="36"/>
-      <c r="I106" s="42"/>
+      <c r="I106" s="44"/>
       <c r="J106" s="36"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="42"/>
+      <c r="K106" s="44"/>
+      <c r="L106" s="44"/>
       <c r="M106" s="36"/>
-      <c r="N106" s="42"/>
+      <c r="N106" s="44"/>
       <c r="O106" s="37"/>
       <c r="P106" s="38"/>
     </row>
     <row r="107" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="49"/>
-      <c r="B107" s="44"/>
+      <c r="A107" s="51"/>
+      <c r="B107" s="46"/>
       <c r="C107" s="26" t="s">
         <v>214</v>
       </c>
@@ -5978,10 +5985,10 @@
       <c r="P107" s="38"/>
     </row>
     <row r="108" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="47" t="s">
+      <c r="A108" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="B108" s="48" t="s">
+      <c r="B108" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C108" s="25" t="s">
@@ -6006,8 +6013,8 @@
       <c r="P108" s="38"/>
     </row>
     <row r="109" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="47"/>
-      <c r="B109" s="48"/>
+      <c r="A109" s="49"/>
+      <c r="B109" s="50"/>
       <c r="C109" s="25" t="s">
         <v>33</v>
       </c>
@@ -6030,8 +6037,8 @@
       <c r="P109" s="38"/>
     </row>
     <row r="110" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="47"/>
-      <c r="B110" s="44"/>
+      <c r="A110" s="49"/>
+      <c r="B110" s="46"/>
       <c r="C110" s="25" t="s">
         <v>151</v>
       </c>
@@ -6054,11 +6061,11 @@
       <c r="P110" s="38"/>
     </row>
     <row r="111" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="47"/>
-      <c r="B111" s="44" t="s">
+      <c r="A111" s="49"/>
+      <c r="B111" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C111" s="44" t="s">
+      <c r="C111" s="46" t="s">
         <v>173</v>
       </c>
       <c r="D111" s="26" t="s">
@@ -6082,9 +6089,9 @@
       <c r="P111" s="38"/>
     </row>
     <row r="112" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="47"/>
-      <c r="B112" s="44"/>
-      <c r="C112" s="44"/>
+      <c r="A112" s="49"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
       <c r="D112" s="26" t="s">
         <v>222</v>
       </c>
@@ -6106,9 +6113,9 @@
       <c r="P112" s="38"/>
     </row>
     <row r="113" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="47"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="44"/>
+      <c r="A113" s="49"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46"/>
       <c r="D113" s="26" t="s">
         <v>194</v>
       </c>
@@ -6130,9 +6137,9 @@
       <c r="P113" s="38"/>
     </row>
     <row r="114" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="47"/>
-      <c r="B114" s="44"/>
-      <c r="C114" s="44"/>
+      <c r="A114" s="49"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="46"/>
       <c r="D114" s="26" t="s">
         <v>225</v>
       </c>
@@ -6152,9 +6159,9 @@
       <c r="P114" s="38"/>
     </row>
     <row r="115" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="47"/>
-      <c r="B115" s="44"/>
-      <c r="C115" s="44"/>
+      <c r="A115" s="49"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="46"/>
       <c r="D115" s="26" t="s">
         <v>226</v>
       </c>
@@ -6174,9 +6181,9 @@
       <c r="P115" s="38"/>
     </row>
     <row r="116" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
-      <c r="B116" s="44"/>
-      <c r="C116" s="44"/>
+      <c r="A116" s="49"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="46"/>
       <c r="D116" s="26" t="s">
         <v>227</v>
       </c>
@@ -6196,9 +6203,9 @@
       <c r="P116" s="38"/>
     </row>
     <row r="117" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="47"/>
-      <c r="B117" s="44"/>
-      <c r="C117" s="44" t="s">
+      <c r="A117" s="49"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="46" t="s">
         <v>228</v>
       </c>
       <c r="D117" s="26" t="s">
@@ -6222,9 +6229,9 @@
       <c r="P117" s="38"/>
     </row>
     <row r="118" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
-      <c r="B118" s="44"/>
-      <c r="C118" s="44"/>
+      <c r="A118" s="49"/>
+      <c r="B118" s="46"/>
+      <c r="C118" s="46"/>
       <c r="D118" s="26" t="s">
         <v>222</v>
       </c>
@@ -6246,9 +6253,9 @@
       <c r="P118" s="38"/>
     </row>
     <row r="119" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="47"/>
-      <c r="B119" s="44"/>
-      <c r="C119" s="44"/>
+      <c r="A119" s="49"/>
+      <c r="B119" s="46"/>
+      <c r="C119" s="46"/>
       <c r="D119" s="26" t="s">
         <v>194</v>
       </c>
@@ -6270,9 +6277,9 @@
       <c r="P119" s="38"/>
     </row>
     <row r="120" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="47"/>
-      <c r="B120" s="44"/>
-      <c r="C120" s="44"/>
+      <c r="A120" s="49"/>
+      <c r="B120" s="46"/>
+      <c r="C120" s="46"/>
       <c r="D120" s="26" t="s">
         <v>227</v>
       </c>
@@ -6292,9 +6299,9 @@
       <c r="P120" s="38"/>
     </row>
     <row r="121" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
-      <c r="B121" s="44"/>
-      <c r="C121" s="44" t="s">
+      <c r="A121" s="49"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D121" s="26" t="s">
@@ -6318,9 +6325,9 @@
       <c r="P121" s="38"/>
     </row>
     <row r="122" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="47"/>
-      <c r="B122" s="44"/>
-      <c r="C122" s="44"/>
+      <c r="A122" s="49"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="46"/>
       <c r="D122" s="26" t="s">
         <v>194</v>
       </c>
@@ -6342,9 +6349,9 @@
       <c r="P122" s="38"/>
     </row>
     <row r="123" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="47"/>
-      <c r="B123" s="44"/>
-      <c r="C123" s="44"/>
+      <c r="A123" s="49"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
       <c r="D123" s="26" t="s">
         <v>227</v>
       </c>
@@ -6364,9 +6371,9 @@
       <c r="P123" s="38"/>
     </row>
     <row r="124" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="44" t="s">
+      <c r="A124" s="49"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="46" t="s">
         <v>235</v>
       </c>
       <c r="D124" s="26" t="s">
@@ -6390,9 +6397,9 @@
       <c r="P124" s="38"/>
     </row>
     <row r="125" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="47"/>
-      <c r="B125" s="44"/>
-      <c r="C125" s="44"/>
+      <c r="A125" s="49"/>
+      <c r="B125" s="46"/>
+      <c r="C125" s="46"/>
       <c r="D125" s="26" t="s">
         <v>194</v>
       </c>
@@ -6414,9 +6421,9 @@
       <c r="P125" s="38"/>
     </row>
     <row r="126" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="47"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="44"/>
+      <c r="A126" s="49"/>
+      <c r="B126" s="46"/>
+      <c r="C126" s="46"/>
       <c r="D126" s="26" t="s">
         <v>121</v>
       </c>
@@ -6436,9 +6443,9 @@
       <c r="P126" s="38"/>
     </row>
     <row r="127" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="47"/>
-      <c r="B127" s="44"/>
-      <c r="C127" s="44"/>
+      <c r="A127" s="49"/>
+      <c r="B127" s="46"/>
+      <c r="C127" s="46"/>
       <c r="D127" s="26" t="s">
         <v>115</v>
       </c>
@@ -6458,9 +6465,9 @@
       <c r="P127" s="38"/>
     </row>
     <row r="128" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="47"/>
-      <c r="B128" s="44"/>
-      <c r="C128" s="44"/>
+      <c r="A128" s="49"/>
+      <c r="B128" s="46"/>
+      <c r="C128" s="46"/>
       <c r="D128" s="26" t="s">
         <v>227</v>
       </c>
@@ -6480,8 +6487,8 @@
       <c r="P128" s="38"/>
     </row>
     <row r="129" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A129" s="47"/>
-      <c r="B129" s="45" t="s">
+      <c r="A129" s="49"/>
+      <c r="B129" s="47" t="s">
         <v>238</v>
       </c>
       <c r="C129" s="20" t="s">
@@ -6506,8 +6513,8 @@
       <c r="P129" s="38"/>
     </row>
     <row r="130" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A130" s="47"/>
-      <c r="B130" s="45"/>
+      <c r="A130" s="49"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="20" t="s">
         <v>240</v>
       </c>
@@ -6530,8 +6537,8 @@
       <c r="P130" s="38"/>
     </row>
     <row r="131" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A131" s="47"/>
-      <c r="B131" s="45"/>
+      <c r="A131" s="49"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="20" t="s">
         <v>242</v>
       </c>
@@ -6554,14 +6561,14 @@
       <c r="P131" s="38"/>
     </row>
     <row r="132" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="47"/>
-      <c r="B132" s="45" t="s">
+      <c r="A132" s="49"/>
+      <c r="B132" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C132" s="45" t="s">
+      <c r="C132" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="D132" s="45" t="s">
+      <c r="D132" s="47" t="s">
         <v>245</v>
       </c>
       <c r="E132" s="20" t="s">
@@ -6582,10 +6589,10 @@
       <c r="P132" s="38"/>
     </row>
     <row r="133" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A133" s="47"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="45"/>
-      <c r="D133" s="45"/>
+      <c r="A133" s="49"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="47"/>
+      <c r="D133" s="47"/>
       <c r="E133" s="20" t="s">
         <v>227</v>
       </c>
@@ -6604,8 +6611,8 @@
       <c r="P133" s="38"/>
     </row>
     <row r="134" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="47"/>
-      <c r="B134" s="45"/>
+      <c r="A134" s="49"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="20" t="s">
         <v>50</v>
       </c>
@@ -6630,8 +6637,8 @@
       <c r="P134" s="38"/>
     </row>
     <row r="135" spans="1:16" s="39" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A135" s="47"/>
-      <c r="B135" s="45"/>
+      <c r="A135" s="49"/>
+      <c r="B135" s="47"/>
       <c r="C135" s="20" t="s">
         <v>53</v>
       </c>
@@ -6656,9 +6663,9 @@
       <c r="P135" s="38"/>
     </row>
     <row r="136" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A136" s="47"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="45" t="s">
+      <c r="A136" s="49"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="47" t="s">
         <v>56</v>
       </c>
       <c r="D136" s="20" t="s">
@@ -6667,10 +6674,10 @@
       <c r="E136" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F136" s="45" t="s">
+      <c r="F136" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G136" s="45" t="s">
+      <c r="G136" s="47" t="s">
         <v>60</v>
       </c>
       <c r="H136" s="36"/>
@@ -6686,17 +6693,17 @@
       <c r="P136" s="38"/>
     </row>
     <row r="137" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A137" s="47"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="45"/>
+      <c r="A137" s="49"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="47"/>
       <c r="D137" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F137" s="45"/>
-      <c r="G137" s="45"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
       <c r="H137" s="28"/>
       <c r="I137" s="36"/>
       <c r="J137" s="36"/>
@@ -6710,17 +6717,17 @@
       <c r="P137" s="38"/>
     </row>
     <row r="138" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="47"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="45"/>
-      <c r="D138" s="45" t="s">
+      <c r="A138" s="49"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="47"/>
+      <c r="D138" s="47" t="s">
         <v>62</v>
       </c>
       <c r="E138" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F138" s="45"/>
-      <c r="G138" s="45"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
       <c r="H138" s="36"/>
       <c r="I138" s="36"/>
       <c r="J138" s="36"/>
@@ -6734,15 +6741,15 @@
       <c r="P138" s="38"/>
     </row>
     <row r="139" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A139" s="47"/>
-      <c r="B139" s="45"/>
-      <c r="C139" s="45"/>
-      <c r="D139" s="45"/>
+      <c r="A139" s="49"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="47"/>
+      <c r="D139" s="47"/>
       <c r="E139" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F139" s="45"/>
-      <c r="G139" s="45"/>
+      <c r="F139" s="47"/>
+      <c r="G139" s="47"/>
       <c r="H139" s="36"/>
       <c r="I139" s="36"/>
       <c r="J139" s="36"/>
@@ -6756,9 +6763,9 @@
       <c r="P139" s="38"/>
     </row>
     <row r="140" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="47"/>
-      <c r="B140" s="45"/>
-      <c r="C140" s="45"/>
+      <c r="A140" s="49"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="47"/>
       <c r="D140" s="26" t="s">
         <v>64</v>
       </c>
@@ -6780,12 +6787,12 @@
       <c r="P140" s="38"/>
     </row>
     <row r="141" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="47"/>
-      <c r="B141" s="45"/>
-      <c r="C141" s="45" t="s">
+      <c r="A141" s="49"/>
+      <c r="B141" s="47"/>
+      <c r="C141" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="D141" s="44" t="s">
+      <c r="D141" s="46" t="s">
         <v>248</v>
       </c>
       <c r="E141" s="26" t="s">
@@ -6806,10 +6813,10 @@
       <c r="P141" s="38"/>
     </row>
     <row r="142" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A142" s="47"/>
-      <c r="B142" s="45"/>
-      <c r="C142" s="45"/>
-      <c r="D142" s="44"/>
+      <c r="A142" s="49"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="46"/>
       <c r="E142" s="20" t="s">
         <v>227</v>
       </c>
@@ -6828,10 +6835,10 @@
       <c r="P142" s="38"/>
     </row>
     <row r="143" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="47"/>
-      <c r="B143" s="45"/>
-      <c r="C143" s="45"/>
-      <c r="D143" s="44"/>
+      <c r="A143" s="49"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="47"/>
+      <c r="D143" s="46"/>
       <c r="E143" s="26" t="s">
         <v>124</v>
       </c>
@@ -6850,8 +6857,8 @@
       <c r="P143" s="38"/>
     </row>
     <row r="144" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="47"/>
-      <c r="B144" s="45" t="s">
+      <c r="A144" s="49"/>
+      <c r="B144" s="47" t="s">
         <v>250</v>
       </c>
       <c r="C144" s="20" t="s">
@@ -6876,8 +6883,8 @@
       <c r="P144" s="38"/>
     </row>
     <row r="145" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="47"/>
-      <c r="B145" s="45"/>
+      <c r="A145" s="49"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="20" t="s">
         <v>253</v>
       </c>
@@ -6900,8 +6907,8 @@
       <c r="P145" s="38"/>
     </row>
     <row r="146" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="47"/>
-      <c r="B146" s="45"/>
+      <c r="A146" s="49"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="20" t="s">
         <v>255</v>
       </c>
@@ -6924,7 +6931,7 @@
       <c r="P146" s="38"/>
     </row>
     <row r="147" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A147" s="47"/>
+      <c r="A147" s="49"/>
       <c r="B147" s="20" t="s">
         <v>257</v>
       </c>
@@ -6952,7 +6959,7 @@
       <c r="P147" s="38"/>
     </row>
     <row r="148" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A148" s="47"/>
+      <c r="A148" s="49"/>
       <c r="B148" s="20" t="s">
         <v>261</v>
       </c>
@@ -6978,7 +6985,7 @@
       <c r="P148" s="38"/>
     </row>
     <row r="149" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A149" s="47"/>
+      <c r="A149" s="49"/>
       <c r="B149" s="20" t="s">
         <v>156</v>
       </c>
@@ -7004,7 +7011,7 @@
       <c r="P149" s="38"/>
     </row>
     <row r="150" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="47"/>
+      <c r="A150" s="49"/>
       <c r="B150" s="26" t="s">
         <v>214</v>
       </c>
@@ -7028,8 +7035,8 @@
       <c r="P150" s="38"/>
     </row>
     <row r="151" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="47"/>
-      <c r="B151" s="46" t="s">
+      <c r="A151" s="49"/>
+      <c r="B151" s="48" t="s">
         <v>170</v>
       </c>
       <c r="C151" s="26" t="s">
@@ -7054,8 +7061,8 @@
       <c r="P151" s="38"/>
     </row>
     <row r="152" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="47"/>
-      <c r="B152" s="46"/>
+      <c r="A152" s="49"/>
+      <c r="B152" s="48"/>
       <c r="C152" s="26" t="s">
         <v>266</v>
       </c>
@@ -7078,9 +7085,9 @@
       <c r="P152" s="38"/>
     </row>
     <row r="153" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="47"/>
-      <c r="B153" s="46"/>
-      <c r="C153" s="46" t="s">
+      <c r="A153" s="49"/>
+      <c r="B153" s="48"/>
+      <c r="C153" s="48" t="s">
         <v>255</v>
       </c>
       <c r="D153" s="26" t="s">
@@ -7102,9 +7109,9 @@
       <c r="P153" s="38"/>
     </row>
     <row r="154" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="47"/>
-      <c r="B154" s="46"/>
-      <c r="C154" s="46"/>
+      <c r="A154" s="49"/>
+      <c r="B154" s="48"/>
+      <c r="C154" s="48"/>
       <c r="D154" s="26" t="s">
         <v>268</v>
       </c>
@@ -7124,9 +7131,9 @@
       <c r="P154" s="38"/>
     </row>
     <row r="155" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="47"/>
-      <c r="B155" s="46"/>
-      <c r="C155" s="46"/>
+      <c r="A155" s="49"/>
+      <c r="B155" s="48"/>
+      <c r="C155" s="48"/>
       <c r="D155" s="26" t="s">
         <v>269</v>
       </c>
@@ -7148,9 +7155,9 @@
       <c r="P155" s="38"/>
     </row>
     <row r="156" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="47"/>
-      <c r="B156" s="46"/>
-      <c r="C156" s="46"/>
+      <c r="A156" s="49"/>
+      <c r="B156" s="48"/>
+      <c r="C156" s="48"/>
       <c r="D156" s="26" t="s">
         <v>168</v>
       </c>
@@ -7170,9 +7177,9 @@
       <c r="P156" s="28"/>
     </row>
     <row r="157" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="47"/>
-      <c r="B157" s="46"/>
-      <c r="C157" s="46"/>
+      <c r="A157" s="49"/>
+      <c r="B157" s="48"/>
+      <c r="C157" s="48"/>
       <c r="D157" s="26" t="s">
         <v>227</v>
       </c>
@@ -7192,9 +7199,9 @@
       <c r="P157" s="28"/>
     </row>
     <row r="158" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="47"/>
-      <c r="B158" s="46"/>
-      <c r="C158" s="46"/>
+      <c r="A158" s="49"/>
+      <c r="B158" s="48"/>
+      <c r="C158" s="48"/>
       <c r="D158" s="26" t="s">
         <v>271</v>
       </c>
@@ -7214,9 +7221,9 @@
       <c r="P158" s="28"/>
     </row>
     <row r="159" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="47"/>
-      <c r="B159" s="46"/>
-      <c r="C159" s="46"/>
+      <c r="A159" s="49"/>
+      <c r="B159" s="48"/>
+      <c r="C159" s="48"/>
       <c r="D159" s="40" t="s">
         <v>272</v>
       </c>
@@ -7543,18 +7550,18 @@
       <c r="E170" s="3"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
-      <c r="H170" s="52">
+      <c r="H170" s="54">
         <f>H169+I169+M169+N169+O169+P169+J169+K169+L169</f>
         <v>160090.07142857142</v>
       </c>
-      <c r="I170" s="53"/>
-      <c r="J170" s="53"/>
-      <c r="K170" s="53"/>
-      <c r="L170" s="53"/>
-      <c r="M170" s="53"/>
-      <c r="N170" s="53"/>
-      <c r="O170" s="53"/>
-      <c r="P170" s="53"/>
+      <c r="I170" s="55"/>
+      <c r="J170" s="55"/>
+      <c r="K170" s="55"/>
+      <c r="L170" s="55"/>
+      <c r="M170" s="55"/>
+      <c r="N170" s="55"/>
+      <c r="O170" s="55"/>
+      <c r="P170" s="55"/>
     </row>
     <row r="171" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
@@ -7566,38 +7573,38 @@
       <c r="E171" s="3"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
-      <c r="H171" s="59">
+      <c r="H171" s="61">
         <f>H170*1.06</f>
         <v>169695.47571428571</v>
       </c>
-      <c r="I171" s="60"/>
-      <c r="J171" s="60"/>
-      <c r="K171" s="60"/>
-      <c r="L171" s="60"/>
-      <c r="M171" s="60"/>
-      <c r="N171" s="60"/>
-      <c r="O171" s="60"/>
-      <c r="P171" s="60"/>
+      <c r="I171" s="62"/>
+      <c r="J171" s="62"/>
+      <c r="K171" s="62"/>
+      <c r="L171" s="62"/>
+      <c r="M171" s="62"/>
+      <c r="N171" s="62"/>
+      <c r="O171" s="62"/>
+      <c r="P171" s="62"/>
     </row>
     <row r="172" spans="1:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="57" t="s">
+      <c r="A172" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B172" s="58"/>
-      <c r="C172" s="58"/>
-      <c r="D172" s="58"/>
-      <c r="E172" s="58"/>
-      <c r="F172" s="58"/>
-      <c r="G172" s="58"/>
-      <c r="H172" s="58"/>
-      <c r="I172" s="58"/>
-      <c r="J172" s="58"/>
-      <c r="K172" s="58"/>
-      <c r="L172" s="58"/>
-      <c r="M172" s="58"/>
-      <c r="N172" s="58"/>
-      <c r="O172" s="58"/>
-      <c r="P172" s="58"/>
+      <c r="B172" s="60"/>
+      <c r="C172" s="60"/>
+      <c r="D172" s="60"/>
+      <c r="E172" s="60"/>
+      <c r="F172" s="60"/>
+      <c r="G172" s="60"/>
+      <c r="H172" s="60"/>
+      <c r="I172" s="60"/>
+      <c r="J172" s="60"/>
+      <c r="K172" s="60"/>
+      <c r="L172" s="60"/>
+      <c r="M172" s="60"/>
+      <c r="N172" s="60"/>
+      <c r="O172" s="60"/>
+      <c r="P172" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="89">
@@ -7707,8 +7714,8 @@
   </sheetPr>
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F55" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -7732,46 +7739,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="54"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" spans="1:16" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7824,10 +7831,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -7852,8 +7859,8 @@
       <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="25" t="s">
         <v>33</v>
       </c>
@@ -7876,8 +7883,8 @@
       <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="25" t="s">
         <v>151</v>
       </c>
@@ -7900,11 +7907,11 @@
       <c r="P6" s="38"/>
     </row>
     <row r="7" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="46" t="s">
         <v>173</v>
       </c>
       <c r="D7" s="31" t="s">
@@ -7928,9 +7935,9 @@
       <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="31" t="s">
         <v>222</v>
       </c>
@@ -7952,9 +7959,9 @@
       <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="31" t="s">
         <v>194</v>
       </c>
@@ -7976,9 +7983,9 @@
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="31" t="s">
         <v>225</v>
       </c>
@@ -7998,9 +8005,9 @@
       <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="31" t="s">
         <v>226</v>
       </c>
@@ -8020,9 +8027,9 @@
       <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="31" t="s">
         <v>227</v>
       </c>
@@ -8042,9 +8049,9 @@
       <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46" t="s">
         <v>228</v>
       </c>
       <c r="D13" s="31" t="s">
@@ -8068,9 +8075,9 @@
       <c r="P13" s="38"/>
     </row>
     <row r="14" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="31" t="s">
         <v>222</v>
       </c>
@@ -8092,9 +8099,9 @@
       <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="31" t="s">
         <v>194</v>
       </c>
@@ -8116,9 +8123,9 @@
       <c r="P15" s="38"/>
     </row>
     <row r="16" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="31" t="s">
         <v>227</v>
       </c>
@@ -8138,9 +8145,9 @@
       <c r="P16" s="38"/>
     </row>
     <row r="17" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D17" s="31" t="s">
@@ -8164,9 +8171,9 @@
       <c r="P17" s="38"/>
     </row>
     <row r="18" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="31" t="s">
         <v>194</v>
       </c>
@@ -8188,9 +8195,9 @@
       <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="31" t="s">
         <v>227</v>
       </c>
@@ -8210,9 +8217,9 @@
       <c r="P19" s="38"/>
     </row>
     <row r="20" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46" t="s">
         <v>235</v>
       </c>
       <c r="D20" s="31" t="s">
@@ -8236,9 +8243,9 @@
       <c r="P20" s="38"/>
     </row>
     <row r="21" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="31" t="s">
         <v>194</v>
       </c>
@@ -8260,9 +8267,9 @@
       <c r="P21" s="38"/>
     </row>
     <row r="22" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="31" t="s">
         <v>121</v>
       </c>
@@ -8282,9 +8289,9 @@
       <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="31" t="s">
         <v>115</v>
       </c>
@@ -8304,9 +8311,9 @@
       <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="31" t="s">
         <v>227</v>
       </c>
@@ -8326,8 +8333,8 @@
       <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="47" t="s">
         <v>238</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -8352,8 +8359,8 @@
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="21" t="s">
         <v>240</v>
       </c>
@@ -8376,8 +8383,8 @@
       <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="21" t="s">
         <v>242</v>
       </c>
@@ -8400,14 +8407,14 @@
       <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="47" t="s">
         <v>245</v>
       </c>
       <c r="E28" s="21" t="s">
@@ -8428,10 +8435,10 @@
       <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="21" t="s">
         <v>227</v>
       </c>
@@ -8450,8 +8457,8 @@
       <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -8476,8 +8483,8 @@
       <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" s="39" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="21" t="s">
         <v>53</v>
       </c>
@@ -8502,9 +8509,9 @@
       <c r="P31" s="38"/>
     </row>
     <row r="32" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="21" t="s">
@@ -8513,10 +8520,10 @@
       <c r="E32" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="47" t="s">
         <v>60</v>
       </c>
       <c r="H32" s="36"/>
@@ -8532,17 +8539,17 @@
       <c r="P32" s="38"/>
     </row>
     <row r="33" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="32"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
@@ -8556,17 +8563,17 @@
       <c r="P33" s="38"/>
     </row>
     <row r="34" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
@@ -8580,15 +8587,15 @@
       <c r="P34" s="38"/>
     </row>
     <row r="35" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
@@ -8602,9 +8609,9 @@
       <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="31" t="s">
         <v>64</v>
       </c>
@@ -8626,12 +8633,12 @@
       <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="46" t="s">
         <v>248</v>
       </c>
       <c r="E37" s="31" t="s">
@@ -8652,10 +8659,10 @@
       <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="44"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="21" t="s">
         <v>227</v>
       </c>
@@ -8674,10 +8681,10 @@
       <c r="P38" s="38"/>
     </row>
     <row r="39" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="44"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="31" t="s">
         <v>124</v>
       </c>
@@ -8696,8 +8703,8 @@
       <c r="P39" s="38"/>
     </row>
     <row r="40" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="45" t="s">
+      <c r="A40" s="49"/>
+      <c r="B40" s="47" t="s">
         <v>250</v>
       </c>
       <c r="C40" s="21" t="s">
@@ -8722,8 +8729,8 @@
       <c r="P40" s="38"/>
     </row>
     <row r="41" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="21" t="s">
         <v>253</v>
       </c>
@@ -8746,8 +8753,8 @@
       <c r="P41" s="38"/>
     </row>
     <row r="42" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="21" t="s">
         <v>255</v>
       </c>
@@ -8770,7 +8777,7 @@
       <c r="P42" s="38"/>
     </row>
     <row r="43" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="21" t="s">
         <v>257</v>
       </c>
@@ -8798,7 +8805,7 @@
       <c r="P43" s="38"/>
     </row>
     <row r="44" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="21" t="s">
         <v>261</v>
       </c>
@@ -8824,7 +8831,7 @@
       <c r="P44" s="38"/>
     </row>
     <row r="45" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="21" t="s">
         <v>156</v>
       </c>
@@ -8850,7 +8857,7 @@
       <c r="P45" s="38"/>
     </row>
     <row r="46" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="31" t="s">
         <v>214</v>
       </c>
@@ -8874,8 +8881,8 @@
       <c r="P46" s="38"/>
     </row>
     <row r="47" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="46" t="s">
+      <c r="A47" s="49"/>
+      <c r="B47" s="48" t="s">
         <v>170</v>
       </c>
       <c r="C47" s="31" t="s">
@@ -8900,8 +8907,8 @@
       <c r="P47" s="38"/>
     </row>
     <row r="48" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="46"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="31" t="s">
         <v>266</v>
       </c>
@@ -8924,9 +8931,9 @@
       <c r="P48" s="38"/>
     </row>
     <row r="49" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46" t="s">
+      <c r="A49" s="49"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48" t="s">
         <v>255</v>
       </c>
       <c r="D49" s="31" t="s">
@@ -8948,9 +8955,9 @@
       <c r="P49" s="38"/>
     </row>
     <row r="50" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="31" t="s">
         <v>268</v>
       </c>
@@ -8970,9 +8977,9 @@
       <c r="P50" s="38"/>
     </row>
     <row r="51" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="31" t="s">
         <v>269</v>
       </c>
@@ -8994,9 +9001,9 @@
       <c r="P51" s="38"/>
     </row>
     <row r="52" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="31" t="s">
         <v>168</v>
       </c>
@@ -9016,9 +9023,9 @@
       <c r="P52" s="32"/>
     </row>
     <row r="53" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="31" t="s">
         <v>227</v>
       </c>
@@ -9038,9 +9045,9 @@
       <c r="P53" s="32"/>
     </row>
     <row r="54" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
       <c r="D54" s="31" t="s">
         <v>271</v>
       </c>
@@ -9060,9 +9067,9 @@
       <c r="P54" s="32"/>
     </row>
     <row r="55" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
       <c r="D55" s="40" t="s">
         <v>272</v>
       </c>
@@ -9175,7 +9182,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9187,47 +9194,47 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L60" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M60" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N60" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O60" s="4"/>
       <c r="P60" s="24"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L61" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M61" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N61" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" s="4"/>
-      <c r="P61" s="24"/>
+      <c r="P61" s="43"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
@@ -9300,36 +9307,36 @@
         <v>0</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" ref="I64:N64" si="0">SUM(I1:I63)</f>
+        <f>SUM(I1:I63)</f>
         <v>0</v>
       </c>
       <c r="J64" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(J1:J63)</f>
         <v>0</v>
       </c>
       <c r="K64" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(K1:K63)</f>
         <v>11.5</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(L1:L63)</f>
         <v>11.5</v>
       </c>
       <c r="M64" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(M1:M63)</f>
         <v>9.5</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
+        <f>SUM(N1:N63)</f>
+        <v>24.5</v>
       </c>
       <c r="O64" s="4">
         <f>O65/440</f>
-        <v>4.95</v>
+        <v>4.7024999999999997</v>
       </c>
       <c r="P64" s="4">
         <f>J64+M64+H64+I64+N64+O64</f>
-        <v>41.95</v>
+        <v>38.702500000000001</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -9351,32 +9358,32 @@
         <v>0</v>
       </c>
       <c r="J65" s="4">
-        <f t="shared" ref="J65:N65" si="1">J64*660</f>
+        <f t="shared" ref="J65:N65" si="0">J64*660</f>
         <v>0</v>
       </c>
       <c r="K65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7590</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7590</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6270</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="1"/>
-        <v>18150</v>
+        <f t="shared" si="0"/>
+        <v>16170</v>
       </c>
       <c r="O65" s="4">
         <f>(K65+L65+M65+N65)*1.1/20</f>
-        <v>2178</v>
+        <v>2069.1</v>
       </c>
       <c r="P65" s="23">
         <f>P64*2*660/7</f>
-        <v>7910.5714285714294</v>
+        <v>7298.1857142857143</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -9389,18 +9396,18 @@
       <c r="E66" s="3"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="52">
+      <c r="H66" s="54">
         <f>H65+I65+M65+N65+O65+P65+J65+K65+L65</f>
-        <v>49688.571428571428</v>
-      </c>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
+        <v>46987.28571428571</v>
+      </c>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
     </row>
     <row r="67" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -9412,38 +9419,38 @@
       <c r="E67" s="3"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="59">
+      <c r="H67" s="61">
         <f>H66*1.06</f>
-        <v>52669.885714285716</v>
-      </c>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="60"/>
-      <c r="P67" s="60"/>
+        <v>49806.522857142852</v>
+      </c>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="62"/>
+      <c r="O67" s="62"/>
+      <c r="P67" s="62"/>
     </row>
     <row r="68" spans="1:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="58"/>
-      <c r="L68" s="58"/>
-      <c r="M68" s="58"/>
-      <c r="N68" s="58"/>
-      <c r="O68" s="58"/>
-      <c r="P68" s="58"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="60"/>
+      <c r="O68" s="60"/>
+      <c r="P68" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -9488,10 +9495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H100" workbookViewId="0">
-      <selection activeCell="O116" sqref="O116"/>
+    <sheetView showGridLines="0" topLeftCell="F100" workbookViewId="0">
+      <selection activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -9506,7 +9513,8 @@
     <col min="8" max="8" width="10.6640625" style="19" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" style="19" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="19" customWidth="1"/>
-    <col min="11" max="14" width="11.77734375" style="19" customWidth="1"/>
+    <col min="11" max="13" width="11.77734375" style="19" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.44140625" style="17" customWidth="1"/>
     <col min="17" max="259" width="16.33203125" style="15" customWidth="1"/>
@@ -9514,46 +9522,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="54"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" spans="1:16" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9606,10 +9614,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -9620,7 +9628,7 @@
       <c r="F4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="64" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="27"/>
@@ -9646,9 +9654,9 @@
       <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -9658,7 +9666,7 @@
       <c r="F5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="27"/>
       <c r="I5" s="32">
         <v>0.25</v>
@@ -9682,10 +9690,10 @@
       <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="48" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="50" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="25" t="s">
@@ -9694,7 +9702,7 @@
       <c r="F6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="27"/>
       <c r="I6" s="32">
         <v>0</v>
@@ -9718,17 +9726,17 @@
       <c r="P6" s="29"/>
     </row>
     <row r="7" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="63"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="27"/>
       <c r="I7" s="32">
         <v>0</v>
@@ -9752,17 +9760,17 @@
       <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="63"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="27"/>
       <c r="I8" s="32">
         <v>0</v>
@@ -9786,8 +9794,8 @@
       <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="25" t="s">
         <v>40</v>
       </c>
@@ -9796,7 +9804,7 @@
       <c r="F9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="63"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="27"/>
       <c r="I9" s="32">
         <v>0.125</v>
@@ -9820,8 +9828,8 @@
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="33" t="s">
         <v>42</v>
       </c>
@@ -9830,7 +9838,7 @@
       <c r="F10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="63"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27">
         <v>0.25</v>
@@ -9854,8 +9862,8 @@
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="48" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -9890,8 +9898,8 @@
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="25" t="s">
         <v>47</v>
       </c>
@@ -9924,8 +9932,8 @@
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="47" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -9962,8 +9970,8 @@
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="21" t="s">
         <v>53</v>
       </c>
@@ -9998,9 +10006,9 @@
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -10009,10 +10017,10 @@
       <c r="E15" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="47" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="27"/>
@@ -10038,17 +10046,17 @@
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="27"/>
       <c r="I16" s="32">
         <v>0.25</v>
@@ -10072,17 +10080,17 @@
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="27"/>
       <c r="I17" s="32">
         <v>0.25</v>
@@ -10106,15 +10114,15 @@
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="27"/>
       <c r="I18" s="32">
         <v>0.25</v>
@@ -10138,9 +10146,9 @@
       <c r="P18" s="29"/>
     </row>
     <row r="19" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="31" t="s">
         <v>64</v>
       </c>
@@ -10172,8 +10180,8 @@
       <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="47" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -10210,8 +10218,8 @@
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="21" t="s">
         <v>70</v>
       </c>
@@ -10246,8 +10254,8 @@
       <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="21" t="s">
         <v>73</v>
       </c>
@@ -10280,8 +10288,8 @@
       <c r="P22" s="29"/>
     </row>
     <row r="23" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="21" t="s">
         <v>74</v>
       </c>
@@ -10314,8 +10322,8 @@
       <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="21" t="s">
         <v>76</v>
       </c>
@@ -10346,8 +10354,8 @@
       <c r="P24" s="29"/>
     </row>
     <row r="25" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="21" t="s">
         <v>77</v>
       </c>
@@ -10380,8 +10388,8 @@
       <c r="P25" s="29"/>
     </row>
     <row r="26" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="47" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -10416,8 +10424,8 @@
       <c r="P26" s="29"/>
     </row>
     <row r="27" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="21" t="s">
         <v>82</v>
       </c>
@@ -10450,8 +10458,8 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="21" t="s">
         <v>83</v>
       </c>
@@ -10484,8 +10492,8 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="21" t="s">
         <v>84</v>
       </c>
@@ -10516,8 +10524,8 @@
       <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="21" t="s">
         <v>85</v>
       </c>
@@ -10550,8 +10558,8 @@
       <c r="P30" s="29"/>
     </row>
     <row r="31" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="21" t="s">
         <v>87</v>
       </c>
@@ -10584,8 +10592,8 @@
       <c r="P31" s="29"/>
     </row>
     <row r="32" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="21" t="s">
         <v>89</v>
       </c>
@@ -10618,8 +10626,8 @@
       <c r="P32" s="29"/>
     </row>
     <row r="33" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="21" t="s">
         <v>91</v>
       </c>
@@ -10652,12 +10660,12 @@
       <c r="P33" s="29"/>
     </row>
     <row r="34" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="47" t="s">
         <v>94</v>
       </c>
       <c r="E34" s="21" t="s">
@@ -10666,7 +10674,7 @@
       <c r="F34" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="47" t="s">
         <v>97</v>
       </c>
       <c r="H34" s="27"/>
@@ -10692,17 +10700,17 @@
       <c r="P34" s="29"/>
     </row>
     <row r="35" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="21" t="s">
         <v>98</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="45"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="27"/>
       <c r="I35" s="32">
         <v>0.25</v>
@@ -10726,8 +10734,8 @@
       <c r="P35" s="29"/>
     </row>
     <row r="36" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="47" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="21" t="s">
@@ -10762,8 +10770,8 @@
       <c r="P36" s="29"/>
     </row>
     <row r="37" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="21" t="s">
         <v>103</v>
       </c>
@@ -10796,12 +10804,12 @@
       <c r="P37" s="29"/>
     </row>
     <row r="38" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="47" t="s">
         <v>106</v>
       </c>
       <c r="E38" s="21" t="s">
@@ -10834,10 +10842,10 @@
       <c r="P38" s="29"/>
     </row>
     <row r="39" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="21" t="s">
         <v>109</v>
       </c>
@@ -10868,9 +10876,9 @@
       <c r="P39" s="29"/>
     </row>
     <row r="40" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="21" t="s">
         <v>111</v>
       </c>
@@ -10902,9 +10910,9 @@
       <c r="P40" s="29"/>
     </row>
     <row r="41" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="21" t="s">
         <v>113</v>
       </c>
@@ -10934,9 +10942,9 @@
       <c r="P41" s="29"/>
     </row>
     <row r="42" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47" t="s">
         <v>116</v>
       </c>
       <c r="D42" s="21" t="s">
@@ -10970,9 +10978,9 @@
       <c r="P42" s="29"/>
     </row>
     <row r="43" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="21" t="s">
         <v>114</v>
       </c>
@@ -11004,10 +11012,10 @@
       <c r="P43" s="29"/>
     </row>
     <row r="44" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47" t="s">
         <v>120</v>
       </c>
       <c r="E44" s="21" t="s">
@@ -11038,10 +11046,10 @@
       <c r="P44" s="29"/>
     </row>
     <row r="45" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="21" t="s">
         <v>122</v>
       </c>
@@ -11070,9 +11078,9 @@
       <c r="P45" s="29"/>
     </row>
     <row r="46" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="21" t="s">
         <v>123</v>
       </c>
@@ -11102,10 +11110,10 @@
       <c r="P46" s="29"/>
     </row>
     <row r="47" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47" t="s">
         <v>124</v>
       </c>
       <c r="E47" s="21" t="s">
@@ -11114,19 +11122,19 @@
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="27"/>
-      <c r="I47" s="42">
+      <c r="I47" s="44">
         <v>0.5</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J47" s="44">
         <v>0.5</v>
       </c>
-      <c r="K47" s="42">
+      <c r="K47" s="44">
         <v>1</v>
       </c>
-      <c r="L47" s="42">
+      <c r="L47" s="44">
         <v>1</v>
       </c>
-      <c r="M47" s="42">
+      <c r="M47" s="44">
         <v>1</v>
       </c>
       <c r="N47" s="32">
@@ -11136,10 +11144,10 @@
       <c r="P47" s="29"/>
     </row>
     <row r="48" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="21" t="s">
         <v>126</v>
       </c>
@@ -11148,11 +11156,11 @@
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="27"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
       <c r="N48" s="32">
         <v>0.25</v>
       </c>
@@ -11160,10 +11168,10 @@
       <c r="P48" s="29"/>
     </row>
     <row r="49" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="21" t="s">
         <v>128</v>
       </c>
@@ -11172,11 +11180,11 @@
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="27"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
       <c r="N49" s="32">
         <v>0.5</v>
       </c>
@@ -11184,10 +11192,10 @@
       <c r="P49" s="29"/>
     </row>
     <row r="50" spans="1:16" s="30" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="21" t="s">
         <v>130</v>
       </c>
@@ -11198,11 +11206,11 @@
         <v>132</v>
       </c>
       <c r="H50" s="27"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
       <c r="N50" s="32">
         <v>0.25</v>
       </c>
@@ -11210,9 +11218,9 @@
       <c r="P50" s="29"/>
     </row>
     <row r="51" spans="1:16" s="30" customFormat="1" ht="156.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47" t="s">
         <v>133</v>
       </c>
       <c r="D51" s="21" t="s">
@@ -11248,9 +11256,9 @@
       <c r="P51" s="29"/>
     </row>
     <row r="52" spans="1:16" s="30" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="21" t="s">
         <v>130</v>
       </c>
@@ -11284,8 +11292,8 @@
       <c r="P52" s="29"/>
     </row>
     <row r="53" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="21" t="s">
         <v>137</v>
       </c>
@@ -11318,9 +11326,9 @@
       <c r="P53" s="29"/>
     </row>
     <row r="54" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47" t="s">
         <v>139</v>
       </c>
       <c r="D54" s="21" t="s">
@@ -11354,9 +11362,9 @@
       <c r="P54" s="29"/>
     </row>
     <row r="55" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="21" t="s">
         <v>141</v>
       </c>
@@ -11388,10 +11396,10 @@
       <c r="P55" s="29"/>
     </row>
     <row r="56" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45" t="s">
+      <c r="A56" s="51"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47" t="s">
         <v>124</v>
       </c>
       <c r="E56" s="21" t="s">
@@ -11422,10 +11430,10 @@
       <c r="P56" s="29"/>
     </row>
     <row r="57" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="21" t="s">
         <v>126</v>
       </c>
@@ -11456,10 +11464,10 @@
       <c r="P57" s="29"/>
     </row>
     <row r="58" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="21" t="s">
         <v>128</v>
       </c>
@@ -11490,10 +11498,10 @@
       <c r="P58" s="29"/>
     </row>
     <row r="59" spans="1:16" s="30" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="21" t="s">
         <v>130</v>
       </c>
@@ -11526,9 +11534,9 @@
       <c r="P59" s="29"/>
     </row>
     <row r="60" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="21" t="s">
         <v>143</v>
       </c>
@@ -11560,8 +11568,8 @@
       <c r="P60" s="29"/>
     </row>
     <row r="61" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="45"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="21" t="s">
         <v>145</v>
       </c>
@@ -11594,7 +11602,7 @@
       <c r="P61" s="29"/>
     </row>
     <row r="62" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21" t="s">
         <v>147</v>
@@ -11628,11 +11636,11 @@
       <c r="P62" s="29"/>
     </row>
     <row r="63" spans="1:16" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="45" t="s">
+      <c r="A63" s="51"/>
+      <c r="B63" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="47" t="s">
         <v>150</v>
       </c>
       <c r="D63" s="21" t="s">
@@ -11642,31 +11650,31 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
       <c r="H63" s="27"/>
-      <c r="I63" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="J63" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="K63" s="42">
+      <c r="I63" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="J63" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="K63" s="44">
         <v>0.625</v>
       </c>
-      <c r="L63" s="42">
+      <c r="L63" s="44">
         <v>0.625</v>
       </c>
-      <c r="M63" s="42">
+      <c r="M63" s="44">
         <v>0.625</v>
       </c>
-      <c r="N63" s="42">
+      <c r="N63" s="44">
         <v>0.75</v>
       </c>
       <c r="O63" s="27"/>
       <c r="P63" s="29"/>
     </row>
     <row r="64" spans="1:16" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="21" t="s">
         <v>152</v>
       </c>
@@ -11674,19 +11682,19 @@
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
       <c r="H64" s="27"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
       <c r="O64" s="27"/>
       <c r="P64" s="29"/>
     </row>
     <row r="65" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="21" t="s">
         <v>153</v>
       </c>
@@ -11694,19 +11702,19 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
       <c r="H65" s="27"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
       <c r="O65" s="27"/>
       <c r="P65" s="29"/>
     </row>
     <row r="66" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="21" t="s">
         <v>115</v>
       </c>
@@ -11718,17 +11726,17 @@
         <v>155</v>
       </c>
       <c r="H66" s="27"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
       <c r="O66" s="27"/>
       <c r="P66" s="29"/>
     </row>
     <row r="67" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="21" t="s">
         <v>156</v>
       </c>
@@ -11764,8 +11772,8 @@
       <c r="P67" s="29"/>
     </row>
     <row r="68" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="45" t="s">
+      <c r="A68" s="51"/>
+      <c r="B68" s="47" t="s">
         <v>159</v>
       </c>
       <c r="C68" s="21" t="s">
@@ -11800,8 +11808,8 @@
       <c r="P68" s="38"/>
     </row>
     <row r="69" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="45"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -11834,8 +11842,8 @@
       <c r="P69" s="38"/>
     </row>
     <row r="70" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="45"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="21" t="s">
         <v>164</v>
       </c>
@@ -11868,8 +11876,8 @@
       <c r="P70" s="38"/>
     </row>
     <row r="71" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="45"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="21" t="s">
         <v>165</v>
       </c>
@@ -11902,8 +11910,8 @@
       <c r="P71" s="38"/>
     </row>
     <row r="72" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="45"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="21" t="s">
         <v>167</v>
       </c>
@@ -11934,8 +11942,8 @@
       <c r="P72" s="38"/>
     </row>
     <row r="73" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="45"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="21" t="s">
         <v>168</v>
       </c>
@@ -11968,7 +11976,7 @@
       <c r="P73" s="38"/>
     </row>
     <row r="74" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="31" t="s">
         <v>170</v>
       </c>
@@ -12004,11 +12012,11 @@
       <c r="P74" s="38"/>
     </row>
     <row r="75" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="44" t="s">
+      <c r="A75" s="51"/>
+      <c r="B75" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="46" t="s">
         <v>174</v>
       </c>
       <c r="D75" s="31"/>
@@ -12040,9 +12048,9 @@
       <c r="P75" s="38"/>
     </row>
     <row r="76" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="31"/>
       <c r="E76" s="31"/>
       <c r="F76" s="31" t="s">
@@ -12072,9 +12080,9 @@
       <c r="P76" s="38"/>
     </row>
     <row r="77" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44" t="s">
+      <c r="A77" s="51"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46" t="s">
         <v>177</v>
       </c>
       <c r="D77" s="31"/>
@@ -12106,9 +12114,9 @@
       <c r="P77" s="38"/>
     </row>
     <row r="78" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
       <c r="F78" s="31" t="s">
@@ -12138,10 +12146,10 @@
       <c r="P78" s="38"/>
     </row>
     <row r="79" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
+      <c r="A79" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="46" t="s">
         <v>30</v>
       </c>
       <c r="C79" s="25" t="s">
@@ -12154,7 +12162,7 @@
       <c r="F79" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G79" s="42" t="s">
+      <c r="G79" s="44" t="s">
         <v>181</v>
       </c>
       <c r="H79" s="36"/>
@@ -12176,8 +12184,8 @@
       <c r="P79" s="38"/>
     </row>
     <row r="80" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="44"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="25" t="s">
         <v>40</v>
       </c>
@@ -12186,7 +12194,7 @@
       <c r="F80" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="42"/>
+      <c r="G80" s="44"/>
       <c r="H80" s="36"/>
       <c r="I80" s="32">
         <v>0</v>
@@ -12206,8 +12214,8 @@
       <c r="P80" s="38"/>
     </row>
     <row r="81" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="44"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="25" t="s">
         <v>27</v>
       </c>
@@ -12236,8 +12244,8 @@
       <c r="P81" s="38"/>
     </row>
     <row r="82" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="44"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="46"/>
       <c r="C82" s="25" t="s">
         <v>33</v>
       </c>
@@ -12266,8 +12274,8 @@
       <c r="P82" s="38"/>
     </row>
     <row r="83" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="46"/>
       <c r="C83" s="25" t="s">
         <v>42</v>
       </c>
@@ -12296,8 +12304,8 @@
       <c r="P83" s="38"/>
     </row>
     <row r="84" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="48" t="s">
+      <c r="A84" s="51"/>
+      <c r="B84" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C84" s="25" t="s">
@@ -12328,8 +12336,8 @@
       <c r="P84" s="38"/>
     </row>
     <row r="85" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="44"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="25" t="s">
         <v>47</v>
       </c>
@@ -12358,8 +12366,8 @@
       <c r="P85" s="38"/>
     </row>
     <row r="86" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="45" t="s">
+      <c r="A86" s="51"/>
+      <c r="B86" s="47" t="s">
         <v>185</v>
       </c>
       <c r="C86" s="21" t="s">
@@ -12392,9 +12400,9 @@
       <c r="P86" s="38"/>
     </row>
     <row r="87" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45" t="s">
+      <c r="A87" s="51"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47" t="s">
         <v>56</v>
       </c>
       <c r="D87" s="21" t="s">
@@ -12403,10 +12411,10 @@
       <c r="E87" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="45" t="s">
+      <c r="F87" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G87" s="45" t="s">
+      <c r="G87" s="47" t="s">
         <v>186</v>
       </c>
       <c r="H87" s="36"/>
@@ -12428,17 +12436,17 @@
       <c r="P87" s="38"/>
     </row>
     <row r="88" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
       <c r="H88" s="36"/>
       <c r="I88" s="32">
         <v>0</v>
@@ -12458,17 +12466,17 @@
       <c r="P88" s="38"/>
     </row>
     <row r="89" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="21" t="s">
         <v>187</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
       <c r="H89" s="36"/>
       <c r="I89" s="32">
         <v>0</v>
@@ -12488,9 +12496,9 @@
       <c r="P89" s="38"/>
     </row>
     <row r="90" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
+      <c r="A90" s="51"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="31" t="s">
         <v>64</v>
       </c>
@@ -12518,8 +12526,8 @@
       <c r="P90" s="38"/>
     </row>
     <row r="91" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="45" t="s">
+      <c r="A91" s="51"/>
+      <c r="B91" s="47" t="s">
         <v>188</v>
       </c>
       <c r="C91" s="21" t="s">
@@ -12550,9 +12558,9 @@
       <c r="P91" s="38"/>
     </row>
     <row r="92" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45" t="s">
+      <c r="A92" s="51"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47" t="s">
         <v>189</v>
       </c>
       <c r="D92" s="21"/>
@@ -12582,9 +12590,9 @@
       <c r="P92" s="38"/>
     </row>
     <row r="93" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="49"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="21"/>
       <c r="E93" s="21" t="s">
         <v>109</v>
@@ -12612,8 +12620,8 @@
       <c r="P93" s="38"/>
     </row>
     <row r="94" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A94" s="49"/>
-      <c r="B94" s="45"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="21" t="s">
         <v>192</v>
       </c>
@@ -12642,8 +12650,8 @@
       <c r="P94" s="38"/>
     </row>
     <row r="95" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="45" t="s">
+      <c r="A95" s="51"/>
+      <c r="B95" s="47" t="s">
         <v>195</v>
       </c>
       <c r="C95" s="21" t="s">
@@ -12652,7 +12660,7 @@
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
-      <c r="G95" s="45" t="s">
+      <c r="G95" s="47" t="s">
         <v>197</v>
       </c>
       <c r="H95" s="36"/>
@@ -12674,9 +12682,9 @@
       <c r="P95" s="38"/>
     </row>
     <row r="96" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="45" t="s">
+      <c r="A96" s="51"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47" t="s">
         <v>198</v>
       </c>
       <c r="D96" s="21" t="s">
@@ -12688,7 +12696,7 @@
       <c r="F96" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G96" s="45"/>
+      <c r="G96" s="47"/>
       <c r="H96" s="36"/>
       <c r="I96" s="32">
         <v>0.125</v>
@@ -12708,9 +12716,9 @@
       <c r="P96" s="38"/>
     </row>
     <row r="97" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="45"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
       <c r="D97" s="21"/>
       <c r="E97" s="21" t="s">
         <v>109</v>
@@ -12718,7 +12726,7 @@
       <c r="F97" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="G97" s="45"/>
+      <c r="G97" s="47"/>
       <c r="H97" s="36"/>
       <c r="I97" s="32">
         <v>0.125</v>
@@ -12738,9 +12746,9 @@
       <c r="P97" s="38"/>
     </row>
     <row r="98" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="31" t="s">
         <v>200</v>
       </c>
@@ -12748,7 +12756,7 @@
       <c r="F98" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G98" s="45"/>
+      <c r="G98" s="47"/>
       <c r="H98" s="36"/>
       <c r="I98" s="32">
         <v>0.25</v>
@@ -12768,9 +12776,9 @@
       <c r="P98" s="38"/>
     </row>
     <row r="99" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="49"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="31" t="s">
         <v>202</v>
       </c>
@@ -12778,7 +12786,7 @@
       <c r="F99" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="G99" s="45"/>
+      <c r="G99" s="47"/>
       <c r="H99" s="36"/>
       <c r="I99" s="32">
         <v>0.25</v>
@@ -12798,9 +12806,9 @@
       <c r="P99" s="38"/>
     </row>
     <row r="100" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
       <c r="D100" s="31" t="s">
         <v>204</v>
       </c>
@@ -12808,7 +12816,7 @@
       <c r="F100" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="G100" s="45"/>
+      <c r="G100" s="47"/>
       <c r="H100" s="36"/>
       <c r="I100" s="32">
         <v>0.25</v>
@@ -12828,7 +12836,7 @@
       <c r="P100" s="38"/>
     </row>
     <row r="101" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="49"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="21" t="s">
         <v>206</v>
       </c>
@@ -12862,7 +12870,7 @@
       <c r="P101" s="38"/>
     </row>
     <row r="102" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A102" s="49"/>
+      <c r="A102" s="51"/>
       <c r="B102" s="21" t="s">
         <v>156</v>
       </c>
@@ -12894,8 +12902,8 @@
       <c r="P102" s="38"/>
     </row>
     <row r="103" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="49"/>
-      <c r="B103" s="44" t="s">
+      <c r="A103" s="51"/>
+      <c r="B103" s="46" t="s">
         <v>209</v>
       </c>
       <c r="C103" s="31" t="s">
@@ -12924,9 +12932,9 @@
       <c r="P103" s="38"/>
     </row>
     <row r="104" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="49"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44" t="s">
+      <c r="A104" s="51"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="46" t="s">
         <v>210</v>
       </c>
       <c r="D104" s="31"/>
@@ -12936,27 +12944,27 @@
       <c r="F104" s="31"/>
       <c r="G104" s="31"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="42">
+      <c r="I104" s="44">
         <v>0.25</v>
       </c>
       <c r="J104" s="36"/>
-      <c r="K104" s="42">
+      <c r="K104" s="44">
         <v>0.375</v>
       </c>
-      <c r="L104" s="42">
+      <c r="L104" s="44">
         <v>0.375</v>
       </c>
       <c r="M104" s="36"/>
-      <c r="N104" s="42">
+      <c r="N104" s="44">
         <v>0.375</v>
       </c>
       <c r="O104" s="37"/>
       <c r="P104" s="38"/>
     </row>
     <row r="105" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="49"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
       <c r="D105" s="31"/>
       <c r="E105" s="31" t="s">
         <v>212</v>
@@ -12964,19 +12972,19 @@
       <c r="F105" s="31"/>
       <c r="G105" s="31"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="42"/>
+      <c r="I105" s="44"/>
       <c r="J105" s="36"/>
-      <c r="K105" s="42"/>
-      <c r="L105" s="42"/>
+      <c r="K105" s="44"/>
+      <c r="L105" s="44"/>
       <c r="M105" s="36"/>
-      <c r="N105" s="42"/>
+      <c r="N105" s="44"/>
       <c r="O105" s="37"/>
       <c r="P105" s="38"/>
     </row>
     <row r="106" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="49"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
+      <c r="A106" s="51"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
       <c r="D106" s="31"/>
       <c r="E106" s="31" t="s">
         <v>213</v>
@@ -12984,18 +12992,18 @@
       <c r="F106" s="31"/>
       <c r="G106" s="31"/>
       <c r="H106" s="36"/>
-      <c r="I106" s="42"/>
+      <c r="I106" s="44"/>
       <c r="J106" s="36"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="42"/>
+      <c r="K106" s="44"/>
+      <c r="L106" s="44"/>
       <c r="M106" s="36"/>
-      <c r="N106" s="42"/>
+      <c r="N106" s="44"/>
       <c r="O106" s="37"/>
       <c r="P106" s="38"/>
     </row>
     <row r="107" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="49"/>
-      <c r="B107" s="44"/>
+      <c r="A107" s="51"/>
+      <c r="B107" s="46"/>
       <c r="C107" s="31" t="s">
         <v>214</v>
       </c>
@@ -13059,7 +13067,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -13071,23 +13079,23 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="L110" s="4">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="M110" s="4">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="N110" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O110" s="4"/>
       <c r="P110" s="24"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -13095,27 +13103,46 @@
       <c r="E111" s="3"/>
       <c r="F111" s="22"/>
       <c r="G111" s="22"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
+      <c r="H111" s="4">
+        <f>SUM(H68:H110)</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="4">
+        <f>SUM(I1:I110)</f>
+        <v>16.25</v>
+      </c>
+      <c r="J111" s="4">
+        <f>SUM(J1:J110)</f>
+        <v>10.5</v>
+      </c>
       <c r="K111" s="4">
-        <v>0.5</v>
+        <f>SUM(K1:K110)</f>
+        <v>36.5</v>
       </c>
       <c r="L111" s="4">
-        <v>0.5</v>
+        <f>SUM(L1:L110)</f>
+        <v>36.5</v>
       </c>
       <c r="M111" s="4">
-        <v>0.5</v>
+        <f>SUM(M1:M110)</f>
+        <v>28.875</v>
       </c>
       <c r="N111" s="4">
-        <v>1</v>
-      </c>
-      <c r="O111" s="4"/>
-      <c r="P111" s="24"/>
+        <f>SUM(N1:N110)</f>
+        <v>39.625</v>
+      </c>
+      <c r="O111" s="4">
+        <f>O112/440</f>
+        <v>11.673750000000002</v>
+      </c>
+      <c r="P111" s="4">
+        <f>J111+M111+H111+I111+N111+O111</f>
+        <v>106.92375</v>
+      </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -13123,27 +13150,46 @@
       <c r="E112" s="3"/>
       <c r="F112" s="22"/>
       <c r="G112" s="22"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
+      <c r="H112" s="4">
+        <f>H111*660</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="4">
+        <f>I111*660</f>
+        <v>10725</v>
+      </c>
+      <c r="J112" s="4">
+        <f t="shared" ref="J112:N112" si="0">J111*660</f>
+        <v>6930</v>
+      </c>
       <c r="K112" s="4">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>24090</v>
       </c>
       <c r="L112" s="4">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>24090</v>
       </c>
       <c r="M112" s="4">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>19057.5</v>
       </c>
       <c r="N112" s="4">
-        <v>5</v>
-      </c>
-      <c r="O112" s="4"/>
-      <c r="P112" s="24"/>
+        <f t="shared" si="0"/>
+        <v>26152.5</v>
+      </c>
+      <c r="O112" s="4">
+        <f>(K112+L112+M112+N112)*1.1/20</f>
+        <v>5136.4500000000007</v>
+      </c>
+      <c r="P112" s="23">
+        <f>P111*2*660/7</f>
+        <v>20162.764285714286</v>
+      </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -13151,27 +13197,22 @@
       <c r="E113" s="3"/>
       <c r="F113" s="22"/>
       <c r="G113" s="22"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4">
-        <v>0</v>
-      </c>
-      <c r="L113" s="4">
-        <v>0</v>
-      </c>
-      <c r="M113" s="4">
-        <v>0</v>
-      </c>
-      <c r="N113" s="4">
-        <v>1</v>
-      </c>
-      <c r="O113" s="4"/>
-      <c r="P113" s="24"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H113" s="54">
+        <f>H112+I112+M112+N112+O112+P112+J112+K112+L112</f>
+        <v>136344.21428571429</v>
+      </c>
+      <c r="I113" s="55"/>
+      <c r="J113" s="55"/>
+      <c r="K113" s="55"/>
+      <c r="L113" s="55"/>
+      <c r="M113" s="55"/>
+      <c r="N113" s="55"/>
+      <c r="O113" s="55"/>
+      <c r="P113" s="55"/>
+    </row>
+    <row r="114" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -13179,218 +13220,41 @@
       <c r="E114" s="3"/>
       <c r="F114" s="22"/>
       <c r="G114" s="22"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="L114" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="M114" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="N114" s="4">
-        <v>1</v>
-      </c>
-      <c r="O114" s="4"/>
-      <c r="P114" s="24"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4">
-        <v>0</v>
-      </c>
-      <c r="L115" s="4">
-        <v>0</v>
-      </c>
-      <c r="M115" s="4">
-        <v>0</v>
-      </c>
-      <c r="N115" s="4">
-        <v>1</v>
-      </c>
-      <c r="O115" s="4"/>
-      <c r="P115" s="24"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="4">
-        <f>SUM(H68:H115)</f>
-        <v>0</v>
-      </c>
-      <c r="I116" s="4">
-        <f t="shared" ref="I116:N116" si="0">SUM(I1:I115)</f>
-        <v>16.25</v>
-      </c>
-      <c r="J116" s="4">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="K116" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="L116" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="M116" s="4">
-        <f t="shared" si="0"/>
-        <v>30.375</v>
-      </c>
-      <c r="N116" s="4">
-        <f t="shared" si="0"/>
-        <v>39.625</v>
-      </c>
-      <c r="O116" s="4">
-        <f>O117/440</f>
-        <v>12.045000000000002</v>
-      </c>
-      <c r="P116" s="4">
-        <f>J116+M116+H116+I116+N116+O116</f>
-        <v>108.795</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="4">
-        <f>H116*660</f>
-        <v>0</v>
-      </c>
-      <c r="I117" s="4">
-        <f>I116*660</f>
-        <v>10725</v>
-      </c>
-      <c r="J117" s="4">
-        <f t="shared" ref="J117:N117" si="1">J116*660</f>
-        <v>6930</v>
-      </c>
-      <c r="K117" s="4">
-        <f t="shared" si="1"/>
-        <v>25080</v>
-      </c>
-      <c r="L117" s="4">
-        <f t="shared" si="1"/>
-        <v>25080</v>
-      </c>
-      <c r="M117" s="4">
-        <f t="shared" si="1"/>
-        <v>20047.5</v>
-      </c>
-      <c r="N117" s="4">
-        <f t="shared" si="1"/>
-        <v>26152.5</v>
-      </c>
-      <c r="O117" s="4">
-        <f>(K117+L117+M117+N117)*1.1/20</f>
-        <v>5299.8000000000011</v>
-      </c>
-      <c r="P117" s="23">
-        <f>P116*2*660/7</f>
-        <v>20515.62857142857</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="52">
-        <f>H117+I117+M117+N117+O117+P117+J117+K117+L117</f>
-        <v>139830.42857142858</v>
-      </c>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="53"/>
-      <c r="M118" s="53"/>
-      <c r="N118" s="53"/>
-      <c r="O118" s="53"/>
-      <c r="P118" s="53"/>
-    </row>
-    <row r="119" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="59">
-        <f>H118*1.06</f>
-        <v>148220.2542857143</v>
-      </c>
-      <c r="I119" s="60"/>
-      <c r="J119" s="60"/>
-      <c r="K119" s="60"/>
-      <c r="L119" s="60"/>
-      <c r="M119" s="60"/>
-      <c r="N119" s="60"/>
-      <c r="O119" s="60"/>
-      <c r="P119" s="60"/>
-    </row>
-    <row r="120" spans="1:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="57" t="s">
+      <c r="H114" s="61">
+        <f>H113*1.06</f>
+        <v>144524.86714285717</v>
+      </c>
+      <c r="I114" s="62"/>
+      <c r="J114" s="62"/>
+      <c r="K114" s="62"/>
+      <c r="L114" s="62"/>
+      <c r="M114" s="62"/>
+      <c r="N114" s="62"/>
+      <c r="O114" s="62"/>
+      <c r="P114" s="62"/>
+    </row>
+    <row r="115" spans="1:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B120" s="58"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="58"/>
-      <c r="G120" s="58"/>
-      <c r="H120" s="58"/>
-      <c r="I120" s="58"/>
-      <c r="J120" s="58"/>
-      <c r="K120" s="58"/>
-      <c r="L120" s="58"/>
-      <c r="M120" s="58"/>
-      <c r="N120" s="58"/>
-      <c r="O120" s="58"/>
-      <c r="P120" s="58"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="60"/>
+      <c r="I115" s="60"/>
+      <c r="J115" s="60"/>
+      <c r="K115" s="60"/>
+      <c r="L115" s="60"/>
+      <c r="M115" s="60"/>
+      <c r="N115" s="60"/>
+      <c r="O115" s="60"/>
+      <c r="P115" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="G34:G35"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="H2:P2"/>
@@ -13415,20 +13279,23 @@
     <mergeCell ref="C42:C50"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D47:D50"/>
-    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="G34:G35"/>
     <mergeCell ref="I47:I50"/>
     <mergeCell ref="J47:J50"/>
     <mergeCell ref="K47:K50"/>
     <mergeCell ref="L47:L50"/>
-    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="L63:L66"/>
     <mergeCell ref="B53:B61"/>
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="D56:D59"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="C63:C66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="C96:C100"/>
     <mergeCell ref="M63:M66"/>
     <mergeCell ref="N63:N66"/>
     <mergeCell ref="G79:G80"/>
@@ -13439,6 +13306,17 @@
     <mergeCell ref="B75:B78"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="H113:P113"/>
+    <mergeCell ref="H114:P114"/>
+    <mergeCell ref="A115:P115"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="K104:K106"/>
+    <mergeCell ref="L104:L106"/>
+    <mergeCell ref="N104:N106"/>
     <mergeCell ref="A79:A107"/>
     <mergeCell ref="B79:B83"/>
     <mergeCell ref="G87:G89"/>
@@ -13446,16 +13324,6 @@
     <mergeCell ref="C92:C93"/>
     <mergeCell ref="B95:B100"/>
     <mergeCell ref="G95:G100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="H118:P118"/>
-    <mergeCell ref="H119:P119"/>
-    <mergeCell ref="A120:P120"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="K104:K106"/>
-    <mergeCell ref="L104:L106"/>
-    <mergeCell ref="N104:N106"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
